--- a/Code/Results/Cases/Case_2_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83600065477433</v>
+        <v>10.11255850033214</v>
       </c>
       <c r="C2">
-        <v>7.842415667676867</v>
+        <v>5.413742889184057</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.4800466685852</v>
+        <v>22.88681357282138</v>
       </c>
       <c r="F2">
-        <v>34.78122153112145</v>
+        <v>41.32504043604913</v>
       </c>
       <c r="G2">
-        <v>2.098925813855419</v>
+        <v>3.646568668684891</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.683742341534737</v>
+        <v>8.214536716265343</v>
       </c>
       <c r="K2">
-        <v>12.30902243229345</v>
+        <v>9.353398781795663</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.23176549135326</v>
+        <v>22.95833993011491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.93574238678728</v>
+        <v>9.790149653608982</v>
       </c>
       <c r="C3">
-        <v>7.480944770871981</v>
+        <v>5.239747018743675</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.96342849845267</v>
+        <v>22.52219292162736</v>
       </c>
       <c r="F3">
-        <v>33.32817334376566</v>
+        <v>41.18168449363715</v>
       </c>
       <c r="G3">
-        <v>2.103995011243615</v>
+        <v>3.648369718593737</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.752474056232184</v>
+        <v>8.241579182600864</v>
       </c>
       <c r="K3">
-        <v>11.60489928695545</v>
+        <v>9.121013500172868</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.48191645328543</v>
+        <v>23.08943834532558</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.3511888423342</v>
+        <v>9.587942994821271</v>
       </c>
       <c r="C4">
-        <v>7.250144698251794</v>
+        <v>5.129340549463122</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.99351705826715</v>
+        <v>22.30042578266469</v>
       </c>
       <c r="F4">
-        <v>32.43781417660722</v>
+        <v>41.10545222220654</v>
       </c>
       <c r="G4">
-        <v>2.10719237831113</v>
+        <v>3.649532512501084</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.79637191216432</v>
+        <v>8.259119109567646</v>
       </c>
       <c r="K4">
-        <v>11.15046556524089</v>
+        <v>8.976228469199471</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.65061312325526</v>
+        <v>23.17540166011446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.10495663988482</v>
+        <v>9.50459950103104</v>
       </c>
       <c r="C5">
-        <v>7.153940248032358</v>
+        <v>5.083499355259263</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.58875668435059</v>
+        <v>22.21069839050067</v>
       </c>
       <c r="F5">
-        <v>32.07591926036625</v>
+        <v>41.07737153550131</v>
       </c>
       <c r="G5">
-        <v>2.10851734476359</v>
+        <v>3.650020725065171</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.814686277940136</v>
+        <v>8.26650259964069</v>
       </c>
       <c r="K5">
-        <v>10.95977742502513</v>
+        <v>8.916780932607587</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.72294775962357</v>
+        <v>23.21180553731609</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.06358479450593</v>
+        <v>9.490707295639305</v>
       </c>
       <c r="C6">
-        <v>7.137838100019002</v>
+        <v>5.075837654791759</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.52097975956596</v>
+        <v>22.19584146306916</v>
       </c>
       <c r="F6">
-        <v>32.01589818376695</v>
+        <v>41.07288953084274</v>
       </c>
       <c r="G6">
-        <v>2.108738703072031</v>
+        <v>3.650102661331159</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.817753054282095</v>
+        <v>8.267742881509722</v>
       </c>
       <c r="K6">
-        <v>10.92778342293537</v>
+        <v>8.906885210704015</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.73516992519658</v>
+        <v>23.21793325206886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.34790058089032</v>
+        <v>9.58682263939156</v>
       </c>
       <c r="C7">
-        <v>7.248855853215533</v>
+        <v>5.12872569166054</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.98809649652828</v>
+        <v>22.29921292832136</v>
       </c>
       <c r="F7">
-        <v>32.43292908771279</v>
+        <v>41.10506140821683</v>
       </c>
       <c r="G7">
-        <v>2.107210157272344</v>
+        <v>3.649539038484632</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.7966171835644</v>
+        <v>8.259217730339744</v>
       </c>
       <c r="K7">
-        <v>11.14791607279641</v>
+        <v>8.975428435964291</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.6515743818669</v>
+        <v>23.17588705831905</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.53217108731142</v>
+        <v>10.0023452404916</v>
       </c>
       <c r="C8">
-        <v>7.719659324068743</v>
+        <v>5.354518282286996</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.96525833396641</v>
+        <v>22.76072235401742</v>
       </c>
       <c r="F8">
-        <v>34.28010227383494</v>
+        <v>41.27317784563484</v>
       </c>
       <c r="G8">
-        <v>2.100656478358293</v>
+        <v>3.647177880191006</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.707088262360626</v>
+        <v>8.223667062570261</v>
       </c>
       <c r="K8">
-        <v>12.07085429963097</v>
+        <v>9.273755677620578</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.31475157613831</v>
+        <v>23.00240652631337</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.60386529165414</v>
+        <v>10.77850301457844</v>
       </c>
       <c r="C9">
-        <v>8.57001950631474</v>
+        <v>5.767049130594259</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.52926795971062</v>
+        <v>23.67751190560336</v>
       </c>
       <c r="F9">
-        <v>37.89890840517016</v>
+        <v>41.69532187668209</v>
       </c>
       <c r="G9">
-        <v>2.088445523464525</v>
+        <v>3.642997354303535</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.545050588126073</v>
+        <v>8.161352965975215</v>
       </c>
       <c r="K9">
-        <v>13.70391214696174</v>
+        <v>9.83875643324893</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.78447226852199</v>
+        <v>22.70568884096945</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.97574987683564</v>
+        <v>11.31919620628894</v>
       </c>
       <c r="C10">
-        <v>9.147699973199391</v>
+        <v>6.049457564202578</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.95281229401356</v>
+        <v>24.35166184952227</v>
       </c>
       <c r="F10">
-        <v>40.53628907553556</v>
+        <v>42.06014804888797</v>
       </c>
       <c r="G10">
-        <v>2.079816195016263</v>
+        <v>3.640197104005125</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.434396900419528</v>
+        <v>8.120048797123779</v>
       </c>
       <c r="K10">
-        <v>14.79503630655979</v>
+        <v>10.23749230335654</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.49025483963319</v>
+        <v>22.5143186444184</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.56790687186532</v>
+        <v>11.55769011811444</v>
       </c>
       <c r="C11">
-        <v>9.399933636600663</v>
+        <v>6.173051572578441</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.0518848862222</v>
+        <v>24.65712430428887</v>
       </c>
       <c r="F11">
-        <v>41.72881366304198</v>
+        <v>42.2375505187474</v>
       </c>
       <c r="G11">
-        <v>2.075953102365185</v>
+        <v>3.638981450088456</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.385933741817287</v>
+        <v>8.102223737886927</v>
       </c>
       <c r="K11">
-        <v>15.2678820061331</v>
+        <v>10.41455041610923</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.38110075188728</v>
+        <v>22.43307009021909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.7876103567469</v>
+        <v>11.64685108468564</v>
       </c>
       <c r="C12">
-        <v>9.493912776222583</v>
+        <v>6.219124713695113</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.46918725206521</v>
+        <v>24.7725123159233</v>
       </c>
       <c r="F12">
-        <v>42.17922380585743</v>
+        <v>42.30633105024852</v>
       </c>
       <c r="G12">
-        <v>2.074498183168179</v>
+        <v>3.638529434014151</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.367857859699877</v>
+        <v>8.095612013914314</v>
       </c>
       <c r="K12">
-        <v>15.44357262080483</v>
+        <v>10.48091678991759</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.34368433244424</v>
+        <v>22.40314108283749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.74049396124586</v>
+        <v>11.62770102778921</v>
       </c>
       <c r="C13">
-        <v>9.473741219708206</v>
+        <v>6.209234884137846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.37963070713993</v>
+        <v>24.74767577615875</v>
       </c>
       <c r="F13">
-        <v>42.08227344141312</v>
+        <v>42.29144740097571</v>
       </c>
       <c r="G13">
-        <v>2.074811189717651</v>
+        <v>3.638626414150862</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.371738423198319</v>
+        <v>8.097029825709868</v>
       </c>
       <c r="K13">
-        <v>15.40588386249792</v>
+        <v>10.4666548118912</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.35156221397185</v>
+        <v>22.40954950735052</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.58607252836128</v>
+        <v>11.56504893437772</v>
       </c>
       <c r="C14">
-        <v>9.40769622259633</v>
+        <v>6.176856801936397</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.08635970702548</v>
+        <v>24.66662365071118</v>
       </c>
       <c r="F14">
-        <v>41.76589319062764</v>
+        <v>42.24317728527358</v>
       </c>
       <c r="G14">
-        <v>2.075833252135979</v>
+        <v>3.638944095837813</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.384441051592622</v>
+        <v>8.101677019365077</v>
       </c>
       <c r="K14">
-        <v>15.28240351587295</v>
+        <v>10.42002440109636</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.37794175055672</v>
+        <v>22.43059099894018</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.49089629891771</v>
+        <v>11.52652061220999</v>
       </c>
       <c r="C15">
-        <v>9.367041280291097</v>
+        <v>6.156928545705953</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.90579149985469</v>
+        <v>24.61693671389341</v>
       </c>
       <c r="F15">
-        <v>41.57194567420568</v>
+        <v>42.21381774615957</v>
       </c>
       <c r="G15">
-        <v>2.076460298316583</v>
+        <v>3.639139768036216</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.392257954419483</v>
+        <v>8.104541549479867</v>
       </c>
       <c r="K15">
-        <v>15.20633051456995</v>
+        <v>10.39137147995747</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.39462161301484</v>
+        <v>22.44358875254672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.93641344268781</v>
+        <v>11.3034529422346</v>
       </c>
       <c r="C16">
-        <v>9.131001742457562</v>
+        <v>6.041279817700188</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.88267155373093</v>
+        <v>24.33166530135898</v>
       </c>
       <c r="F16">
-        <v>40.45819623381511</v>
+        <v>42.0487809907549</v>
       </c>
       <c r="G16">
-        <v>2.080069827520945</v>
+        <v>3.640277717215665</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.437602316102046</v>
+        <v>8.121233075138161</v>
       </c>
       <c r="K16">
-        <v>14.7636627027797</v>
+        <v>10.22582885608928</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.49791586996412</v>
+        <v>22.5197455332593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.5881194838503</v>
+        <v>11.16463707485955</v>
       </c>
       <c r="C17">
-        <v>8.983479819356706</v>
+        <v>5.96906329179533</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.2632743088845</v>
+        <v>24.15627080552252</v>
       </c>
       <c r="F17">
-        <v>39.77297706828949</v>
+        <v>41.95043698174329</v>
       </c>
       <c r="G17">
-        <v>2.082299441436668</v>
+        <v>3.640990686688647</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.465903742573564</v>
+        <v>8.13171947775739</v>
       </c>
       <c r="K17">
-        <v>14.48608630534017</v>
+        <v>10.12312137595488</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.56785906037136</v>
+        <v>22.56795462976353</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.38478186900796</v>
+        <v>11.08409478101658</v>
       </c>
       <c r="C18">
-        <v>8.897636073551702</v>
+        <v>5.927068855168885</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.903043463939</v>
+        <v>24.05528079837669</v>
       </c>
       <c r="F18">
-        <v>39.37817973285178</v>
+        <v>41.89495180763473</v>
       </c>
       <c r="G18">
-        <v>2.08358779896054</v>
+        <v>3.641406247888761</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.482357855968337</v>
+        <v>8.137841780372321</v>
       </c>
       <c r="K18">
-        <v>14.32421712158053</v>
+        <v>10.06364251752329</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.61038835310105</v>
+        <v>22.5962295917211</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.31541694445434</v>
+        <v>11.05670697603968</v>
       </c>
       <c r="C19">
-        <v>8.868400993386347</v>
+        <v>5.912772617522236</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.78039240346524</v>
+        <v>24.02107222488095</v>
       </c>
       <c r="F19">
-        <v>39.24439702324708</v>
+        <v>41.87635218235709</v>
       </c>
       <c r="G19">
-        <v>2.084025065314201</v>
+        <v>3.641547892270723</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.487958967899699</v>
+        <v>8.139930295651579</v>
       </c>
       <c r="K19">
-        <v>14.26903032256323</v>
+        <v>10.04343645718428</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.62517230066828</v>
+        <v>22.60589675535945</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.62550690588552</v>
+        <v>11.17948720052892</v>
       </c>
       <c r="C20">
-        <v>8.999286713965091</v>
+        <v>5.976798418748794</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.32962075131594</v>
+        <v>24.17495380697732</v>
       </c>
       <c r="F20">
-        <v>39.84599111771303</v>
+        <v>41.96079442697039</v>
       </c>
       <c r="G20">
-        <v>2.082061487379655</v>
+        <v>3.640914223018386</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.462872761501012</v>
+        <v>8.130593787942896</v>
       </c>
       <c r="K20">
-        <v>14.51586390510768</v>
+        <v>10.1340970438797</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.56017289278602</v>
+        <v>22.56276612060136</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.63155241181381</v>
+        <v>11.58348319757722</v>
       </c>
       <c r="C21">
-        <v>9.427137039430093</v>
+        <v>6.186387028531759</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.172694258945</v>
+        <v>24.69043918588342</v>
       </c>
       <c r="F21">
-        <v>41.85885427664172</v>
+        <v>42.25731226855317</v>
       </c>
       <c r="G21">
-        <v>2.075532840465681</v>
+        <v>3.638850559406904</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.380702428474635</v>
+        <v>8.10030827765592</v>
       </c>
       <c r="K21">
-        <v>15.3187638687145</v>
+        <v>10.43373983105594</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.37008403608266</v>
+        <v>22.42438783324329</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.26266593279951</v>
+        <v>11.84077622085314</v>
       </c>
       <c r="C22">
-        <v>9.697804421157114</v>
+        <v>6.319104058194211</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.37413062884135</v>
+        <v>25.02563552174448</v>
       </c>
       <c r="F22">
-        <v>43.1675289692692</v>
+        <v>42.46041966751169</v>
       </c>
       <c r="G22">
-        <v>2.071311793596745</v>
+        <v>3.637550344849329</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.328612786913304</v>
+        <v>8.081320509608373</v>
       </c>
       <c r="K22">
-        <v>15.82390011173849</v>
+        <v>10.62557633413644</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.2688773494803</v>
+        <v>22.33883595923246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.92822409551459</v>
+        <v>11.70409429174723</v>
       </c>
       <c r="C23">
-        <v>9.554167764821605</v>
+        <v>6.248668840023837</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.73666858007034</v>
+        <v>24.84692591700264</v>
       </c>
       <c r="F23">
-        <v>42.46971640776562</v>
+        <v>42.35118009836575</v>
       </c>
       <c r="G23">
-        <v>2.073560816546674</v>
+        <v>3.63823986923884</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.356263751136933</v>
+        <v>8.091381073759758</v>
       </c>
       <c r="K23">
-        <v>15.55608601556042</v>
+        <v>10.52357361769818</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.32065724988701</v>
+        <v>22.3840484643404</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.60861370861385</v>
+        <v>11.17277574273643</v>
       </c>
       <c r="C24">
-        <v>8.992143628096411</v>
+        <v>5.973302848951302</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.29963839640804</v>
+        <v>24.16650769133359</v>
       </c>
       <c r="F24">
-        <v>39.81298412033898</v>
+        <v>41.95610853916406</v>
       </c>
       <c r="G24">
-        <v>2.082169046014764</v>
+        <v>3.640948774592395</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.464242497751422</v>
+        <v>8.131102420929944</v>
       </c>
       <c r="K24">
-        <v>14.50240857622426</v>
+        <v>10.12913628219326</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.56364061654163</v>
+        <v>22.5651101047897</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.07000044128359</v>
+        <v>10.57332786329006</v>
       </c>
       <c r="C25">
-        <v>8.348092814652855</v>
+        <v>5.658934263688852</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.59924882457492</v>
+        <v>23.42892396263294</v>
       </c>
       <c r="F25">
-        <v>36.92253934623252</v>
+        <v>41.57138113647213</v>
       </c>
       <c r="G25">
-        <v>2.091685124143289</v>
+        <v>3.644080461752022</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.587425893815444</v>
+        <v>8.177421795216361</v>
       </c>
       <c r="K25">
-        <v>13.28119809509508</v>
+        <v>9.688501100938993</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.91243118083714</v>
+        <v>22.78129196250262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.11255850033214</v>
+        <v>13.83600065477431</v>
       </c>
       <c r="C2">
-        <v>5.413742889184057</v>
+        <v>7.842415667676921</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.88681357282138</v>
+        <v>24.48004666858518</v>
       </c>
       <c r="F2">
-        <v>41.32504043604913</v>
+        <v>34.7812215311216</v>
       </c>
       <c r="G2">
-        <v>3.646568668684891</v>
+        <v>2.098925813855687</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.214536716265343</v>
+        <v>4.68374234153477</v>
       </c>
       <c r="K2">
-        <v>9.353398781795663</v>
+        <v>12.30902243229347</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.95833993011491</v>
+        <v>14.23176549135342</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.790149653608982</v>
+        <v>12.93574238678736</v>
       </c>
       <c r="C3">
-        <v>5.239747018743675</v>
+        <v>7.480944770871744</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.52219292162736</v>
+        <v>22.96342849845271</v>
       </c>
       <c r="F3">
-        <v>41.18168449363715</v>
+        <v>33.32817334376557</v>
       </c>
       <c r="G3">
-        <v>3.648369718593737</v>
+        <v>2.103995011243482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.241579182600864</v>
+        <v>4.752474056232153</v>
       </c>
       <c r="K3">
-        <v>9.121013500172868</v>
+        <v>11.60489928695551</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.08943834532558</v>
+        <v>14.48191645328528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.587942994821271</v>
+        <v>12.35118884233426</v>
       </c>
       <c r="C4">
-        <v>5.129340549463122</v>
+        <v>7.250144698251862</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.30042578266469</v>
+        <v>21.99351705826718</v>
       </c>
       <c r="F4">
-        <v>41.10545222220654</v>
+        <v>32.43781417660717</v>
       </c>
       <c r="G4">
-        <v>3.649532512501084</v>
+        <v>2.107192378311129</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.259119109567646</v>
+        <v>4.796371912164156</v>
       </c>
       <c r="K4">
-        <v>8.976228469199471</v>
+        <v>11.15046556524093</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.17540166011446</v>
+        <v>14.65061312325508</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.50459950103104</v>
+        <v>12.10495663988492</v>
       </c>
       <c r="C5">
-        <v>5.083499355259263</v>
+        <v>7.153940248031902</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.21069839050067</v>
+        <v>21.58875668435064</v>
       </c>
       <c r="F5">
-        <v>41.07737153550131</v>
+        <v>32.07591926036613</v>
       </c>
       <c r="G5">
-        <v>3.650020725065171</v>
+        <v>2.108517344763857</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.26650259964069</v>
+        <v>4.814686277940132</v>
       </c>
       <c r="K5">
-        <v>8.916780932607587</v>
+        <v>10.95977742502509</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.21180553731609</v>
+        <v>14.72294775962334</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.490707295639305</v>
+        <v>12.06358479450583</v>
       </c>
       <c r="C6">
-        <v>5.075837654791759</v>
+        <v>7.137838100019084</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.19584146306916</v>
+        <v>21.52097975956595</v>
       </c>
       <c r="F6">
-        <v>41.07288953084274</v>
+        <v>32.01589818376707</v>
       </c>
       <c r="G6">
-        <v>3.650102661331159</v>
+        <v>2.108738703072031</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.267742881509722</v>
+        <v>4.817753054282095</v>
       </c>
       <c r="K6">
-        <v>8.906885210704015</v>
+        <v>10.92778342293534</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.21793325206886</v>
+        <v>14.73516992519669</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.58682263939156</v>
+        <v>12.34790058089038</v>
       </c>
       <c r="C7">
-        <v>5.12872569166054</v>
+        <v>7.248855853215533</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.29921292832136</v>
+        <v>21.98809649652833</v>
       </c>
       <c r="F7">
-        <v>41.10506140821683</v>
+        <v>32.43292908771281</v>
       </c>
       <c r="G7">
-        <v>3.649539038484632</v>
+        <v>2.107210157272209</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.259217730339744</v>
+        <v>4.796617183564334</v>
       </c>
       <c r="K7">
-        <v>8.975428435964291</v>
+        <v>11.14791607279643</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.17588705831905</v>
+        <v>14.65157438186669</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.0023452404916</v>
+        <v>13.53217108731143</v>
       </c>
       <c r="C8">
-        <v>5.354518282286996</v>
+        <v>7.719659324068839</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.76072235401742</v>
+        <v>23.96525833396639</v>
       </c>
       <c r="F8">
-        <v>41.27317784563484</v>
+        <v>34.28010227383503</v>
       </c>
       <c r="G8">
-        <v>3.647177880191006</v>
+        <v>2.100656478358158</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.223667062570261</v>
+        <v>4.707088262360624</v>
       </c>
       <c r="K8">
-        <v>9.273755677620578</v>
+        <v>12.070854299631</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.00240652631337</v>
+        <v>14.31475157613821</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.77850301457844</v>
+        <v>15.60386529165409</v>
       </c>
       <c r="C9">
-        <v>5.767049130594259</v>
+        <v>8.570019506314889</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.67751190560336</v>
+        <v>27.52926795971063</v>
       </c>
       <c r="F9">
-        <v>41.69532187668209</v>
+        <v>37.89890840517012</v>
       </c>
       <c r="G9">
-        <v>3.642997354303535</v>
+        <v>2.08844552346439</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.161352965975215</v>
+        <v>4.545050588126076</v>
       </c>
       <c r="K9">
-        <v>9.83875643324893</v>
+        <v>13.70391214696174</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.70568884096945</v>
+        <v>13.78447226852197</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.31919620628894</v>
+        <v>16.97574987683564</v>
       </c>
       <c r="C10">
-        <v>6.049457564202578</v>
+        <v>9.147699973199389</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.35166184952227</v>
+        <v>29.95281229401352</v>
       </c>
       <c r="F10">
-        <v>42.06014804888797</v>
+        <v>40.53628907553558</v>
       </c>
       <c r="G10">
-        <v>3.640197104005125</v>
+        <v>2.079816195016397</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.120048797123779</v>
+        <v>4.434396900419594</v>
       </c>
       <c r="K10">
-        <v>10.23749230335654</v>
+        <v>14.79503630655975</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.5143186444184</v>
+        <v>13.4902548396332</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.55769011811444</v>
+        <v>17.56790687186527</v>
       </c>
       <c r="C11">
-        <v>6.173051572578441</v>
+        <v>9.399933636600748</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.65712430428887</v>
+        <v>31.05188488622219</v>
       </c>
       <c r="F11">
-        <v>42.2375505187474</v>
+        <v>41.72881366304196</v>
       </c>
       <c r="G11">
-        <v>3.638981450088456</v>
+        <v>2.075953102365184</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.102223737886927</v>
+        <v>4.385933741817285</v>
       </c>
       <c r="K11">
-        <v>10.41455041610923</v>
+        <v>15.26788200613308</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.43307009021909</v>
+        <v>13.38110075188735</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.64685108468564</v>
+        <v>17.78761035674682</v>
       </c>
       <c r="C12">
-        <v>6.219124713695113</v>
+        <v>9.49391277622289</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.7725123159233</v>
+        <v>31.46918725206517</v>
       </c>
       <c r="F12">
-        <v>42.30633105024852</v>
+        <v>42.17922380585744</v>
       </c>
       <c r="G12">
-        <v>3.638529434014151</v>
+        <v>2.07449818316818</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.095612013914314</v>
+        <v>4.367857859699883</v>
       </c>
       <c r="K12">
-        <v>10.48091678991759</v>
+        <v>15.44357262080482</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.40314108283749</v>
+        <v>13.34368433244435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.62770102778921</v>
+        <v>17.74049396124589</v>
       </c>
       <c r="C13">
-        <v>6.209234884137846</v>
+        <v>9.473741219708373</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.74767577615875</v>
+        <v>31.37963070713991</v>
       </c>
       <c r="F13">
-        <v>42.29144740097571</v>
+        <v>42.0822734414131</v>
       </c>
       <c r="G13">
-        <v>3.638626414150862</v>
+        <v>2.074811189717918</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.097029825709868</v>
+        <v>4.371738423198225</v>
       </c>
       <c r="K13">
-        <v>10.4666548118912</v>
+        <v>15.40588386249795</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.40954950735052</v>
+        <v>13.35156221397172</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.56504893437772</v>
+        <v>17.5860725283613</v>
       </c>
       <c r="C14">
-        <v>6.176856801936397</v>
+        <v>9.407696222596497</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.66662365071118</v>
+        <v>31.08635970702544</v>
       </c>
       <c r="F14">
-        <v>42.24317728527358</v>
+        <v>41.76589319062769</v>
       </c>
       <c r="G14">
-        <v>3.638944095837813</v>
+        <v>2.075833252136113</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.101677019365077</v>
+        <v>4.384441051592593</v>
       </c>
       <c r="K14">
-        <v>10.42002440109636</v>
+        <v>15.282403515873</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.43059099894018</v>
+        <v>13.37794175055656</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.52652061220999</v>
+        <v>17.49089629891771</v>
       </c>
       <c r="C15">
-        <v>6.156928545705953</v>
+        <v>9.36704128029125</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.61693671389341</v>
+        <v>30.90579149985465</v>
       </c>
       <c r="F15">
-        <v>42.21381774615957</v>
+        <v>41.57194567420567</v>
       </c>
       <c r="G15">
-        <v>3.639139768036216</v>
+        <v>2.076460298316985</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.104541549479867</v>
+        <v>4.392257954419486</v>
       </c>
       <c r="K15">
-        <v>10.39137147995747</v>
+        <v>15.20633051456999</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.44358875254672</v>
+        <v>13.39462161301483</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.3034529422346</v>
+        <v>16.93641344268773</v>
       </c>
       <c r="C16">
-        <v>6.041279817700188</v>
+        <v>9.131001742457631</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.33166530135898</v>
+        <v>29.88267155373085</v>
       </c>
       <c r="F16">
-        <v>42.0487809907549</v>
+        <v>40.45819623381517</v>
       </c>
       <c r="G16">
-        <v>3.640277717215665</v>
+        <v>2.080069827521079</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.121233075138161</v>
+        <v>4.437602316102073</v>
       </c>
       <c r="K16">
-        <v>10.22582885608928</v>
+        <v>14.76366270277968</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.5197455332593</v>
+        <v>13.49791586996436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.16463707485955</v>
+        <v>16.58811948385032</v>
       </c>
       <c r="C17">
-        <v>5.96906329179533</v>
+        <v>8.983479819356777</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.15627080552252</v>
+        <v>29.2632743088845</v>
       </c>
       <c r="F17">
-        <v>41.95043698174329</v>
+        <v>39.77297706828946</v>
       </c>
       <c r="G17">
-        <v>3.640990686688647</v>
+        <v>2.082299441436668</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.13171947775739</v>
+        <v>4.465903742573595</v>
       </c>
       <c r="K17">
-        <v>10.12312137595488</v>
+        <v>14.4860863053402</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.56795462976353</v>
+        <v>13.56785906037137</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.08409478101658</v>
+        <v>16.38478186900788</v>
       </c>
       <c r="C18">
-        <v>5.927068855168885</v>
+        <v>8.897636073551761</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.05528079837669</v>
+        <v>28.90304346393898</v>
       </c>
       <c r="F18">
-        <v>41.89495180763473</v>
+        <v>39.37817973285185</v>
       </c>
       <c r="G18">
-        <v>3.641406247888761</v>
+        <v>2.083587798960541</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.137841780372321</v>
+        <v>4.482357855968306</v>
       </c>
       <c r="K18">
-        <v>10.06364251752329</v>
+        <v>14.3242171215805</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.5962295917211</v>
+        <v>13.61038835310112</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.05670697603968</v>
+        <v>16.31541694445446</v>
       </c>
       <c r="C19">
-        <v>5.912772617522236</v>
+        <v>8.868400993386361</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.02107222488095</v>
+        <v>28.78039240346524</v>
       </c>
       <c r="F19">
-        <v>41.87635218235709</v>
+        <v>39.24439702324704</v>
       </c>
       <c r="G19">
-        <v>3.641547892270723</v>
+        <v>2.084025065314334</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.139930295651579</v>
+        <v>4.487958967899638</v>
       </c>
       <c r="K19">
-        <v>10.04343645718428</v>
+        <v>14.26903032256334</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.60589675535945</v>
+        <v>13.62517230066809</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.17948720052892</v>
+        <v>16.62550690588546</v>
       </c>
       <c r="C20">
-        <v>5.976798418748794</v>
+        <v>8.999286713965105</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.17495380697732</v>
+        <v>29.3296207513159</v>
       </c>
       <c r="F20">
-        <v>41.96079442697039</v>
+        <v>39.84599111771305</v>
       </c>
       <c r="G20">
-        <v>3.640914223018386</v>
+        <v>2.082061487379523</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.130593787942896</v>
+        <v>4.462872761501008</v>
       </c>
       <c r="K20">
-        <v>10.1340970438797</v>
+        <v>14.51586390510763</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.56276612060136</v>
+        <v>13.56017289278618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.58348319757722</v>
+        <v>17.63155241181388</v>
       </c>
       <c r="C21">
-        <v>6.186387028531759</v>
+        <v>9.427137039430121</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.69043918588342</v>
+        <v>31.17269425894494</v>
       </c>
       <c r="F21">
-        <v>42.25731226855317</v>
+        <v>41.85885427664174</v>
       </c>
       <c r="G21">
-        <v>3.638850559406904</v>
+        <v>2.075532840465816</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.10030827765592</v>
+        <v>4.380702428474518</v>
       </c>
       <c r="K21">
-        <v>10.43373983105594</v>
+        <v>15.31876386871459</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.42438783324329</v>
+        <v>13.37008403608247</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.84077622085314</v>
+        <v>18.26266593279949</v>
       </c>
       <c r="C22">
-        <v>6.319104058194211</v>
+        <v>9.697804421157247</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.02563552174448</v>
+        <v>32.37413062884129</v>
       </c>
       <c r="F22">
-        <v>42.46041966751169</v>
+        <v>43.16752896926918</v>
       </c>
       <c r="G22">
-        <v>3.637550344849329</v>
+        <v>2.071311793596744</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.081320509608373</v>
+        <v>4.328612786913305</v>
       </c>
       <c r="K22">
-        <v>10.62557633413644</v>
+        <v>15.82390011173852</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.33883595923246</v>
+        <v>13.26887734948036</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.70409429174723</v>
+        <v>17.92822409551455</v>
       </c>
       <c r="C23">
-        <v>6.248668840023837</v>
+        <v>9.554167764821756</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.84692591700264</v>
+        <v>31.73666858007034</v>
       </c>
       <c r="F23">
-        <v>42.35118009836575</v>
+        <v>42.46971640776562</v>
       </c>
       <c r="G23">
-        <v>3.63823986923884</v>
+        <v>2.073560816546805</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.091381073759758</v>
+        <v>4.356263751136932</v>
       </c>
       <c r="K23">
-        <v>10.52357361769818</v>
+        <v>15.5560860155604</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.3840484643404</v>
+        <v>13.32065724988708</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.17277574273643</v>
+        <v>16.60861370861387</v>
       </c>
       <c r="C24">
-        <v>5.973302848951302</v>
+        <v>8.992143628096496</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.16650769133359</v>
+        <v>29.29963839640801</v>
       </c>
       <c r="F24">
-        <v>41.95610853916406</v>
+        <v>39.812984120339</v>
       </c>
       <c r="G24">
-        <v>3.640948774592395</v>
+        <v>2.082169046015165</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.131102420929944</v>
+        <v>4.464242497751425</v>
       </c>
       <c r="K24">
-        <v>10.12913628219326</v>
+        <v>14.50240857622428</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.5651101047897</v>
+        <v>13.56364061654165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.57332786329006</v>
+        <v>15.07000044128367</v>
       </c>
       <c r="C25">
-        <v>5.658934263688852</v>
+        <v>8.348092814652842</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.42892396263294</v>
+        <v>26.59924882457488</v>
       </c>
       <c r="F25">
-        <v>41.57138113647213</v>
+        <v>36.92253934623248</v>
       </c>
       <c r="G25">
-        <v>3.644080461752022</v>
+        <v>2.091685124143021</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.177421795216361</v>
+        <v>4.58742589381538</v>
       </c>
       <c r="K25">
-        <v>9.688501100938993</v>
+        <v>13.28119809509512</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.78129196250262</v>
+        <v>13.91243118083702</v>
       </c>
     </row>
   </sheetData>
